--- a/projects/test_building/input/Parameter_HeatingTechnology_Second_Contribution.xlsx
+++ b/projects/test_building/input/Parameter_HeatingTechnology_Second_Contribution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/rokig/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E6A778-0011-CD49-B57D-A7A319D7E1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D37EE0E-DCF3-9045-A685-DF8F8571CC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15440" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15440" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,14 +478,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>

--- a/projects/test_building/input/Parameter_HeatingTechnology_Second_Contribution.xlsx
+++ b/projects/test_building/input/Parameter_HeatingTechnology_Second_Contribution.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
   <si>
     <t>id_sector</t>
   </si>
@@ -47,12 +46,6 @@
   <si>
     <t>percentage</t>
   </si>
-  <si>
-    <t>market_share</t>
-  </si>
-  <si>
-    <t>For each combination of "heating system &amp; main heating technology", the market shares of different "second heating technology" should sum up to the total share (probability) that there is a second heating technology in the system.</t>
-  </si>
 </sst>
 </file>
 
@@ -69,6 +62,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -116,7 +110,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -130,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F33"/>
   <tableColumns count="6">
     <tableColumn id="1" name="id_sector"/>
@@ -140,7 +148,7 @@
     <tableColumn id="5" name="space_heating"/>
     <tableColumn id="6" name="hot_water"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -410,19 +418,19 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -462,7 +470,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
@@ -482,7 +490,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -502,7 +510,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
@@ -522,7 +530,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -542,7 +550,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -562,7 +570,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -582,7 +590,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -602,7 +610,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -622,7 +630,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -642,7 +650,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -662,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -682,7 +690,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -702,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -722,7 +730,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -742,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -762,7 +770,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -782,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3</v>
       </c>
@@ -802,7 +810,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -822,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -842,7 +850,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -862,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -882,7 +890,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -902,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -922,7 +930,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -942,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -962,7 +970,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -982,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1042,7 +1050,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1084,42 +1092,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:B6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Parameter_HeatingTechnology_Second_Contribution.xlsx
+++ b/projects/test_building/input/Parameter_HeatingTechnology_Second_Contribution.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>id_sector</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>market_share</t>
+  </si>
+  <si>
+    <t>For each combination of "heating system &amp; main heating technology", the market shares of different "second heating technology" should sum up to the total share (probability) that there is a second heating technology in the system.</t>
   </si>
 </sst>
 </file>
@@ -1097,4 +1104,37 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:B6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>